--- a/biology/Botanique/Tamarix_parviflora/Tamarix_parviflora.xlsx
+++ b/biology/Botanique/Tamarix_parviflora/Tamarix_parviflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tamarix parviflora, le Tamaris à petites fleurs[3], est une espèce de plante de la famille des Tamaricaceae et du genre Tamarix.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tamarix parviflora, le Tamaris à petites fleurs, est une espèce de plante de la famille des Tamaricaceae et du genre Tamarix.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tamaris à petites fleurs est un arbuste ou un arbre qui atteint une hauteur de 2 à 6 mètres. L'écorce est brune à violette.
 Les très petites feuilles sont alternes. Elles peuvent en forme d'écailles en prolongement de la tige ou pointues et mesurent jusqu'à environ 2 millimètres de long et sont membraneuses sur le bord.
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tamaris à petites fleurs est présent en Méditerranée orientale. Son aire de répartition comprend la Slovénie, la Croatie, l'Albanie, la Macédoine, la Grèce, la Turquie et Israël.
 L'espèce pousse sur les berges des rivières et dans les marécages jusqu'à 300 m d'altitude.
@@ -577,9 +593,11 @@
           <t>Parasitologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fleur a pour parasite Hypophyes pallidulus. La feuille a pour parasites Tuponia montandoni, Tuponia elegans, Tuponia hippophaes, Tuponia mixticolor (de), Diorhabda elongata, Coniatus repandus. Le bourgeon de la feuille a pour parasite Aceria tamaricis. La tige a pour parasites Psectrosema acuticorne (sv), Psectrosema album (sv), Diaspidiotus perniciosus, Chionaspis etrusca, Psectrosema nigrum (sv)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fleur a pour parasite Hypophyes pallidulus. La feuille a pour parasites Tuponia montandoni, Tuponia elegans, Tuponia hippophaes, Tuponia mixticolor (de), Diorhabda elongata, Coniatus repandus. Le bourgeon de la feuille a pour parasite Aceria tamaricis. La tige a pour parasites Psectrosema acuticorne (sv), Psectrosema album (sv), Diaspidiotus perniciosus, Chionaspis etrusca, Psectrosema nigrum (sv).
 </t>
         </is>
       </c>
